--- a/tutorials/sample_data/11_work_orders_mini.xlsx
+++ b/tutorials/sample_data/11_work_orders_mini.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selhousseini\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selhousseini\Documents\GitHub\multimodal-rag-code-execution\tutorials\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE884880-65AF-48C4-893F-DD9DBDB72A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D213DB-9EDD-4622-9E8B-B0FAB587DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53250" yWindow="3510" windowWidth="37305" windowHeight="16905" tabRatio="691" activeTab="1" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" tabRatio="691" activeTab="1" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>Service</t>
   </si>
@@ -229,12 +229,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
     <t>Lopez</t>
   </si>
   <si>
@@ -284,117 +278,6 @@
   </si>
   <si>
     <t>A00112</t>
-  </si>
-  <si>
-    <t>A00113</t>
-  </si>
-  <si>
-    <t>A00114</t>
-  </si>
-  <si>
-    <t>A00115</t>
-  </si>
-  <si>
-    <t>A00116</t>
-  </si>
-  <si>
-    <t>A00117</t>
-  </si>
-  <si>
-    <t>A00118</t>
-  </si>
-  <si>
-    <t>A00119</t>
-  </si>
-  <si>
-    <t>A00120</t>
-  </si>
-  <si>
-    <t>A00121</t>
-  </si>
-  <si>
-    <t>A00122</t>
-  </si>
-  <si>
-    <t>A00123</t>
-  </si>
-  <si>
-    <t>A00124</t>
-  </si>
-  <si>
-    <t>A00125</t>
-  </si>
-  <si>
-    <t>A00126</t>
-  </si>
-  <si>
-    <t>A00127</t>
-  </si>
-  <si>
-    <t>A00128</t>
-  </si>
-  <si>
-    <t>A00129</t>
-  </si>
-  <si>
-    <t>A00130</t>
-  </si>
-  <si>
-    <t>A00131</t>
-  </si>
-  <si>
-    <t>A00132</t>
-  </si>
-  <si>
-    <t>A00133</t>
-  </si>
-  <si>
-    <t>A00134</t>
-  </si>
-  <si>
-    <t>A00135</t>
-  </si>
-  <si>
-    <t>A00136</t>
-  </si>
-  <si>
-    <t>A00137</t>
-  </si>
-  <si>
-    <t>A00138</t>
-  </si>
-  <si>
-    <t>A00139</t>
-  </si>
-  <si>
-    <t>A00140</t>
-  </si>
-  <si>
-    <t>A00141</t>
-  </si>
-  <si>
-    <t>A00142</t>
-  </si>
-  <si>
-    <t>A00143</t>
-  </si>
-  <si>
-    <t>A00144</t>
-  </si>
-  <si>
-    <t>A00145</t>
-  </si>
-  <si>
-    <t>A00146</t>
-  </si>
-  <si>
-    <t>A00147</t>
-  </si>
-  <si>
-    <t>A00148</t>
-  </si>
-  <si>
-    <t>A00149</t>
   </si>
   <si>
     <t>LbrRate</t>
@@ -971,8 +854,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D42C4835-C71C-421B-A606-33ABE1D6E11D}" name="WorkOrders2" displayName="WorkOrders2" ref="A1:V51" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:V51" xr:uid="{34E74291-5DDD-4A5E-AFFB-98DDB45D0538}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D42C4835-C71C-421B-A606-33ABE1D6E11D}" name="WorkOrders2" displayName="WorkOrders2" ref="A1:V14" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:V14" xr:uid="{34E74291-5DDD-4A5E-AFFB-98DDB45D0538}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{4E8AFA40-C9CB-49CA-9827-69AF81CFAA88}" name="WO"/>
     <tableColumn id="2" xr3:uid="{02AB2568-BD74-4FF6-A95B-8D22FDDCDDCC}" name="District"/>
@@ -1411,7 +1294,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1430,11 +1313,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8BA508-0974-4DA0-8B56-630A52F936BC}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>44</v>
@@ -1515,15 +1398,15 @@
         <v>48</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -1593,13 +1476,13 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1663,13 +1546,13 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1733,13 +1616,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1803,13 +1686,13 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1876,13 +1759,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1946,13 +1829,13 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2016,13 +1899,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -2086,7 +1969,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2156,7 +2039,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -2229,7 +2112,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -2299,13 +2182,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -2372,7 +2255,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -2438,2614 +2321,6 @@
       <c r="V14" s="13" t="str">
         <f t="shared" si="7"/>
         <v>Wed</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10">
-        <v>44078</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44128</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="12">
-        <v>275</v>
-      </c>
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" ref="N15:N51" si="8">IF(G15="","",G15-F15)</f>
-        <v>50</v>
-      </c>
-      <c r="O15" s="13" cm="1">
-        <f t="array" ref="O15">INDEX(TechRate,MATCH(H15,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" ref="P15:P51" si="9">O15*K15</f>
-        <v>210</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" ref="Q15:Q51" si="10">IF(I15="Yes",0,P15)</f>
-        <v>210</v>
-      </c>
-      <c r="R15" s="15">
-        <f t="shared" ref="R15:R51" si="11">IF(J15="Yes",0,L15)</f>
-        <v>275</v>
-      </c>
-      <c r="S15" s="15">
-        <f t="shared" ref="S15:S51" si="12">SUM(L15,P15)</f>
-        <v>485</v>
-      </c>
-      <c r="T15" s="15">
-        <f t="shared" ref="T15:T51" si="13">SUM(Q15,R15)</f>
-        <v>485</v>
-      </c>
-      <c r="U15" s="13" t="str">
-        <f t="shared" ref="U15:U51" si="14">TEXT(F15,"ddd")</f>
-        <v>Fri</v>
-      </c>
-      <c r="V15" s="13" t="str">
-        <f t="shared" ref="V15:V51" si="15">TEXT(G15,"ddd")</f>
-        <v>Sat</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="10">
-        <v>44078</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44145</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L16" s="12">
-        <v>938</v>
-      </c>
-      <c r="M16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="14">
-        <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="O16" s="13" cm="1">
-        <f t="array" ref="O16">INDEX(TechRate,MATCH(H16,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" si="11"/>
-        <v>938</v>
-      </c>
-      <c r="S16" s="15">
-        <f t="shared" si="12"/>
-        <v>998</v>
-      </c>
-      <c r="T16" s="15">
-        <f t="shared" si="13"/>
-        <v>998</v>
-      </c>
-      <c r="U16" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V16" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10">
-        <v>44079</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44095</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L17" s="12">
-        <v>61.249699999999997</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="14">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="O17" s="13" cm="1">
-        <f t="array" ref="O17">INDEX(TechRate,MATCH(H17,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" si="11"/>
-        <v>61.249699999999997</v>
-      </c>
-      <c r="S17" s="15">
-        <f t="shared" si="12"/>
-        <v>81.24969999999999</v>
-      </c>
-      <c r="T17" s="15">
-        <f t="shared" si="13"/>
-        <v>81.24969999999999</v>
-      </c>
-      <c r="U17" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Sat</v>
-      </c>
-      <c r="V17" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="10">
-        <v>44079</v>
-      </c>
-      <c r="G18" s="10">
-        <v>44096</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="12">
-        <v>48</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="14">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="O18" s="13" cm="1">
-        <f t="array" ref="O18">INDEX(TechRate,MATCH(H18,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="12"/>
-        <v>168</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="13"/>
-        <v>168</v>
-      </c>
-      <c r="U18" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Sat</v>
-      </c>
-      <c r="V18" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10">
-        <v>44081</v>
-      </c>
-      <c r="G19" s="10">
-        <v>44084</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L19" s="12">
-        <v>204.28399999999999</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O19" s="13" cm="1">
-        <f t="array" ref="O19">INDEX(TechRate,MATCH(H19,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="R19" s="15">
-        <f t="shared" si="11"/>
-        <v>204.28399999999999</v>
-      </c>
-      <c r="S19" s="15">
-        <f t="shared" si="12"/>
-        <v>239.28399999999999</v>
-      </c>
-      <c r="T19" s="15">
-        <f t="shared" si="13"/>
-        <v>239.28399999999999</v>
-      </c>
-      <c r="U19" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V19" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G20" s="10">
-        <v>44089</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="12">
-        <v>240</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="14">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O20" s="13" cm="1">
-        <f t="array" ref="O20">INDEX(TechRate,MATCH(H20,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" si="11"/>
-        <v>240</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" si="12"/>
-        <v>310</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" si="13"/>
-        <v>310</v>
-      </c>
-      <c r="U20" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V20" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G21" s="10">
-        <v>44091</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="12">
-        <v>120</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O21" s="13" cm="1">
-        <f t="array" ref="O21">INDEX(TechRate,MATCH(H21,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R21" s="15">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="S21" s="15">
-        <f t="shared" si="12"/>
-        <v>190</v>
-      </c>
-      <c r="T21" s="15">
-        <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-      <c r="U21" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V21" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G22" s="10">
-        <v>44095</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="L22" s="12">
-        <v>475</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="14">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="O22" s="13" cm="1">
-        <f t="array" ref="O22">INDEX(TechRate,MATCH(H22,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="R22" s="15">
-        <f t="shared" si="11"/>
-        <v>475</v>
-      </c>
-      <c r="S22" s="15">
-        <f t="shared" si="12"/>
-        <v>615</v>
-      </c>
-      <c r="T22" s="15">
-        <f t="shared" si="13"/>
-        <v>615</v>
-      </c>
-      <c r="U22" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V22" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G23" s="10">
-        <v>44096</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="L23" s="12">
-        <v>341</v>
-      </c>
-      <c r="M23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="14">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="O23" s="13" cm="1">
-        <f t="array" ref="O23">INDEX(TechRate,MATCH(H23,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="R23" s="15">
-        <f t="shared" si="11"/>
-        <v>341</v>
-      </c>
-      <c r="S23" s="15">
-        <f t="shared" si="12"/>
-        <v>481</v>
-      </c>
-      <c r="T23" s="15">
-        <f t="shared" si="13"/>
-        <v>481</v>
-      </c>
-      <c r="U23" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V23" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G24" s="10">
-        <v>44132</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L24" s="12">
-        <v>61.180599999999998</v>
-      </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="14">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="O24" s="13" cm="1">
-        <f t="array" ref="O24">INDEX(TechRate,MATCH(H24,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P24" s="15">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="Q24" s="15">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="R24" s="15">
-        <f t="shared" si="11"/>
-        <v>61.180599999999998</v>
-      </c>
-      <c r="S24" s="15">
-        <f t="shared" si="12"/>
-        <v>121.1806</v>
-      </c>
-      <c r="T24" s="15">
-        <f t="shared" si="13"/>
-        <v>121.1806</v>
-      </c>
-      <c r="U24" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V24" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Wed</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="10">
-        <v>44082</v>
-      </c>
-      <c r="G25" s="10">
-        <v>44152</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="12">
-        <v>155.3931</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="14">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="O25" s="13" cm="1">
-        <f t="array" ref="O25">INDEX(TechRate,MATCH(H25,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="R25" s="15">
-        <f t="shared" si="11"/>
-        <v>155.3931</v>
-      </c>
-      <c r="S25" s="15">
-        <f t="shared" si="12"/>
-        <v>195.3931</v>
-      </c>
-      <c r="T25" s="15">
-        <f t="shared" si="13"/>
-        <v>195.3931</v>
-      </c>
-      <c r="U25" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V25" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="10">
-        <v>44083</v>
-      </c>
-      <c r="G26" s="10">
-        <v>44098</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="12">
-        <v>204.28399999999999</v>
-      </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="14">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="13" cm="1">
-        <f t="array" ref="O26">INDEX(TechRate,MATCH(H26,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R26" s="15">
-        <f t="shared" si="11"/>
-        <v>204.28399999999999</v>
-      </c>
-      <c r="S26" s="15">
-        <f t="shared" si="12"/>
-        <v>274.28399999999999</v>
-      </c>
-      <c r="T26" s="15">
-        <f t="shared" si="13"/>
-        <v>274.28399999999999</v>
-      </c>
-      <c r="U26" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V26" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="10">
-        <v>44083</v>
-      </c>
-      <c r="G27" s="10">
-        <v>44103</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="12">
-        <v>37.917400000000001</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="14">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="O27" s="13" cm="1">
-        <f t="array" ref="O27">INDEX(TechRate,MATCH(H27,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P27" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Q27" s="15">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="R27" s="15">
-        <f t="shared" si="11"/>
-        <v>37.917400000000001</v>
-      </c>
-      <c r="S27" s="15">
-        <f t="shared" si="12"/>
-        <v>77.917400000000001</v>
-      </c>
-      <c r="T27" s="15">
-        <f t="shared" si="13"/>
-        <v>77.917400000000001</v>
-      </c>
-      <c r="U27" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V27" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10">
-        <v>44083</v>
-      </c>
-      <c r="G28" s="10">
-        <v>44103</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L28" s="12">
-        <v>88.405699999999996</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="14">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="O28" s="13" cm="1">
-        <f t="array" ref="O28">INDEX(TechRate,MATCH(H28,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P28" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R28" s="15">
-        <f t="shared" si="11"/>
-        <v>88.405699999999996</v>
-      </c>
-      <c r="S28" s="15">
-        <f t="shared" si="12"/>
-        <v>108.4057</v>
-      </c>
-      <c r="T28" s="15">
-        <f t="shared" si="13"/>
-        <v>108.4057</v>
-      </c>
-      <c r="U28" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V28" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="10">
-        <v>44083</v>
-      </c>
-      <c r="G29" s="10">
-        <v>44103</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L29" s="12">
-        <v>202.28639999999999</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="14">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="O29" s="13" cm="1">
-        <f t="array" ref="O29">INDEX(TechRate,MATCH(H29,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R29" s="15">
-        <f t="shared" si="11"/>
-        <v>202.28639999999999</v>
-      </c>
-      <c r="S29" s="15">
-        <f t="shared" si="12"/>
-        <v>222.28639999999999</v>
-      </c>
-      <c r="T29" s="15">
-        <f t="shared" si="13"/>
-        <v>222.28639999999999</v>
-      </c>
-      <c r="U29" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V29" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="10">
-        <v>44084</v>
-      </c>
-      <c r="G30" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="12">
-        <v>120</v>
-      </c>
-      <c r="M30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="14">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="O30" s="13" cm="1">
-        <f t="array" ref="O30">INDEX(TechRate,MATCH(H30,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P30" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Q30" s="15">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="R30" s="15">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="S30" s="15">
-        <f t="shared" si="12"/>
-        <v>160</v>
-      </c>
-      <c r="T30" s="15">
-        <f t="shared" si="13"/>
-        <v>160</v>
-      </c>
-      <c r="U30" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Thu</v>
-      </c>
-      <c r="V30" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="10">
-        <v>44085</v>
-      </c>
-      <c r="G31" s="10">
-        <v>44088</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L31" s="12">
-        <v>120</v>
-      </c>
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O31" s="13" cm="1">
-        <f t="array" ref="O31">INDEX(TechRate,MATCH(H31,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P31" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R31" s="15">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="S31" s="15">
-        <f t="shared" si="12"/>
-        <v>140</v>
-      </c>
-      <c r="T31" s="15">
-        <f t="shared" si="13"/>
-        <v>140</v>
-      </c>
-      <c r="U31" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V31" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="10">
-        <v>44085</v>
-      </c>
-      <c r="G32" s="10">
-        <v>44089</v>
-      </c>
-      <c r="H32" s="5">
-        <v>2</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="12">
-        <v>535.62480000000005</v>
-      </c>
-      <c r="M32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O32" s="13" cm="1">
-        <f t="array" ref="O32">INDEX(TechRate,MATCH(H32,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R32" s="15">
-        <f t="shared" si="11"/>
-        <v>535.62480000000005</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" si="12"/>
-        <v>605.62480000000005</v>
-      </c>
-      <c r="T32" s="15">
-        <f t="shared" si="13"/>
-        <v>605.62480000000005</v>
-      </c>
-      <c r="U32" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V32" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="10">
-        <v>44085</v>
-      </c>
-      <c r="G33" s="10">
-        <v>44097</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L33" s="12">
-        <v>24.63</v>
-      </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="14">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="O33" s="13" cm="1">
-        <f t="array" ref="O33">INDEX(TechRate,MATCH(H33,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="R33" s="15">
-        <f t="shared" si="11"/>
-        <v>24.63</v>
-      </c>
-      <c r="S33" s="15">
-        <f t="shared" si="12"/>
-        <v>59.629999999999995</v>
-      </c>
-      <c r="T33" s="15">
-        <f t="shared" si="13"/>
-        <v>59.629999999999995</v>
-      </c>
-      <c r="U33" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V33" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Wed</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="10">
-        <v>44085</v>
-      </c>
-      <c r="G34" s="10">
-        <v>44100</v>
-      </c>
-      <c r="H34" s="5">
-        <v>2</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="12">
-        <v>43.26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="14">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="O34" s="13" cm="1">
-        <f t="array" ref="O34">INDEX(TechRate,MATCH(H34,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R34" s="15">
-        <f t="shared" si="11"/>
-        <v>43.26</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" si="12"/>
-        <v>113.25999999999999</v>
-      </c>
-      <c r="T34" s="15">
-        <f t="shared" si="13"/>
-        <v>113.25999999999999</v>
-      </c>
-      <c r="U34" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V34" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Sat</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="10">
-        <v>44085</v>
-      </c>
-      <c r="G35" s="10">
-        <v>44110</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L35" s="12">
-        <v>21.33</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="14">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="O35" s="13" cm="1">
-        <f t="array" ref="O35">INDEX(TechRate,MATCH(H35,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R35" s="15">
-        <f t="shared" si="11"/>
-        <v>21.33</v>
-      </c>
-      <c r="S35" s="15">
-        <f t="shared" si="12"/>
-        <v>41.33</v>
-      </c>
-      <c r="T35" s="15">
-        <f t="shared" si="13"/>
-        <v>41.33</v>
-      </c>
-      <c r="U35" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Fri</v>
-      </c>
-      <c r="V35" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="10">
-        <v>44086</v>
-      </c>
-      <c r="G36" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12">
-        <v>1</v>
-      </c>
-      <c r="L36" s="12">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="M36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="14">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="O36" s="13" cm="1">
-        <f t="array" ref="O36">INDEX(TechRate,MATCH(H36,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P36" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="R36" s="15">
-        <f t="shared" si="11"/>
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="S36" s="15">
-        <f t="shared" si="12"/>
-        <v>80.456000000000003</v>
-      </c>
-      <c r="T36" s="15">
-        <f t="shared" si="13"/>
-        <v>80.456000000000003</v>
-      </c>
-      <c r="U36" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Sat</v>
-      </c>
-      <c r="V36" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="10">
-        <v>44088</v>
-      </c>
-      <c r="G37" s="10">
-        <v>44098</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L37" s="12">
-        <v>126.62309999999999</v>
-      </c>
-      <c r="M37" t="s">
-        <v>33</v>
-      </c>
-      <c r="N37" s="14">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="O37" s="13" cm="1">
-        <f t="array" ref="O37">INDEX(TechRate,MATCH(H37,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P37" s="15">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="R37" s="15">
-        <f t="shared" si="11"/>
-        <v>126.62309999999999</v>
-      </c>
-      <c r="S37" s="15">
-        <f t="shared" si="12"/>
-        <v>161.62309999999999</v>
-      </c>
-      <c r="T37" s="15">
-        <f t="shared" si="13"/>
-        <v>161.62309999999999</v>
-      </c>
-      <c r="U37" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V37" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="10">
-        <v>44088</v>
-      </c>
-      <c r="G38" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L38" s="12">
-        <v>251.0033</v>
-      </c>
-      <c r="M38" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="14">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="O38" s="13" cm="1">
-        <f t="array" ref="O38">INDEX(TechRate,MATCH(H38,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P38" s="15">
-        <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="R38" s="15">
-        <f t="shared" si="11"/>
-        <v>251.0033</v>
-      </c>
-      <c r="S38" s="15">
-        <f t="shared" si="12"/>
-        <v>371.00329999999997</v>
-      </c>
-      <c r="T38" s="15">
-        <f t="shared" si="13"/>
-        <v>371.00329999999997</v>
-      </c>
-      <c r="U38" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V38" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="10">
-        <v>44088</v>
-      </c>
-      <c r="G39" s="10">
-        <v>44109</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="12">
-        <v>395.28</v>
-      </c>
-      <c r="M39" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="14">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="O39" s="13" cm="1">
-        <f t="array" ref="O39">INDEX(TechRate,MATCH(H39,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P39" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Q39" s="15">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="R39" s="15">
-        <f t="shared" si="11"/>
-        <v>395.28</v>
-      </c>
-      <c r="S39" s="15">
-        <f t="shared" si="12"/>
-        <v>435.28</v>
-      </c>
-      <c r="T39" s="15">
-        <f t="shared" si="13"/>
-        <v>435.28</v>
-      </c>
-      <c r="U39" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V39" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="10">
-        <v>44088</v>
-      </c>
-      <c r="G40" s="10">
-        <v>44111</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L40" s="12">
-        <v>36</v>
-      </c>
-      <c r="M40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="14">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="O40" s="13" cm="1">
-        <f t="array" ref="O40">INDEX(TechRate,MATCH(H40,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P40" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R40" s="15">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="S40" s="15">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="T40" s="15">
-        <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="U40" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V40" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Wed</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="10">
-        <v>44088</v>
-      </c>
-      <c r="G41" s="10">
-        <v>44158</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="L41" s="12">
-        <v>510.67529999999999</v>
-      </c>
-      <c r="M41" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="14">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="O41" s="13" cm="1">
-        <f t="array" ref="O41">INDEX(TechRate,MATCH(H41,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P41" s="15">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="Q41" s="15">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="R41" s="15">
-        <f t="shared" si="11"/>
-        <v>510.67529999999999</v>
-      </c>
-      <c r="S41" s="15">
-        <f t="shared" si="12"/>
-        <v>650.67529999999999</v>
-      </c>
-      <c r="T41" s="15">
-        <f t="shared" si="13"/>
-        <v>650.67529999999999</v>
-      </c>
-      <c r="U41" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V41" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="10">
-        <v>44089</v>
-      </c>
-      <c r="G42" s="10">
-        <v>44111</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="12">
-        <v>42.66</v>
-      </c>
-      <c r="M42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="14">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="O42" s="13" cm="1">
-        <f t="array" ref="O42">INDEX(TechRate,MATCH(H42,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P42" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R42" s="15">
-        <f t="shared" si="11"/>
-        <v>42.66</v>
-      </c>
-      <c r="S42" s="15">
-        <f t="shared" si="12"/>
-        <v>112.66</v>
-      </c>
-      <c r="T42" s="15">
-        <f t="shared" si="13"/>
-        <v>112.66</v>
-      </c>
-      <c r="U42" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Tue</v>
-      </c>
-      <c r="V42" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Wed</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="10">
-        <v>44090</v>
-      </c>
-      <c r="G43" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12">
-        <v>1</v>
-      </c>
-      <c r="L43" s="12">
-        <v>5.4720000000000004</v>
-      </c>
-      <c r="M43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" s="14">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="O43" s="13" cm="1">
-        <f t="array" ref="O43">INDEX(TechRate,MATCH(H43,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P43" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="Q43" s="15">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="R43" s="15">
-        <f t="shared" si="11"/>
-        <v>5.4720000000000004</v>
-      </c>
-      <c r="S43" s="15">
-        <f t="shared" si="12"/>
-        <v>85.471999999999994</v>
-      </c>
-      <c r="T43" s="15">
-        <f t="shared" si="13"/>
-        <v>85.471999999999994</v>
-      </c>
-      <c r="U43" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V43" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="10">
-        <v>44090</v>
-      </c>
-      <c r="G44" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L44" s="12">
-        <v>45.237400000000001</v>
-      </c>
-      <c r="M44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="14">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="O44" s="13" cm="1">
-        <f t="array" ref="O44">INDEX(TechRate,MATCH(H44,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P44" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q44" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R44" s="15">
-        <f t="shared" si="11"/>
-        <v>45.237400000000001</v>
-      </c>
-      <c r="S44" s="15">
-        <f t="shared" si="12"/>
-        <v>65.237400000000008</v>
-      </c>
-      <c r="T44" s="15">
-        <f t="shared" si="13"/>
-        <v>65.237400000000008</v>
-      </c>
-      <c r="U44" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V44" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="10">
-        <v>44090</v>
-      </c>
-      <c r="G45" s="10">
-        <v>44105</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L45" s="12">
-        <v>199.452</v>
-      </c>
-      <c r="M45" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="14">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="O45" s="13" cm="1">
-        <f t="array" ref="O45">INDEX(TechRate,MATCH(H45,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P45" s="15">
-        <f t="shared" si="9"/>
-        <v>105</v>
-      </c>
-      <c r="Q45" s="15">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="R45" s="15">
-        <f t="shared" si="11"/>
-        <v>199.452</v>
-      </c>
-      <c r="S45" s="15">
-        <f t="shared" si="12"/>
-        <v>304.452</v>
-      </c>
-      <c r="T45" s="15">
-        <f t="shared" si="13"/>
-        <v>304.452</v>
-      </c>
-      <c r="U45" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V45" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="10">
-        <v>44090</v>
-      </c>
-      <c r="G46" s="10">
-        <v>44109</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="12">
-        <v>144</v>
-      </c>
-      <c r="M46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N46" s="14">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="O46" s="13" cm="1">
-        <f t="array" ref="O46">INDEX(TechRate,MATCH(H46,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P46" s="15">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q46" s="15">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="R46" s="15">
-        <f t="shared" si="11"/>
-        <v>144</v>
-      </c>
-      <c r="S46" s="15">
-        <f t="shared" si="12"/>
-        <v>214</v>
-      </c>
-      <c r="T46" s="15">
-        <f t="shared" si="13"/>
-        <v>214</v>
-      </c>
-      <c r="U46" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Wed</v>
-      </c>
-      <c r="V46" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="10">
-        <v>44091</v>
-      </c>
-      <c r="G47" s="10">
-        <v>44110</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L47" s="12">
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="M47" t="s">
-        <v>33</v>
-      </c>
-      <c r="N47" s="14">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="O47" s="13" cm="1">
-        <f t="array" ref="O47">INDEX(TechRate,MATCH(H47,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P47" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q47" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R47" s="15">
-        <f t="shared" si="11"/>
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="S47" s="15">
-        <f t="shared" si="12"/>
-        <v>26.216000000000001</v>
-      </c>
-      <c r="T47" s="15">
-        <f t="shared" si="13"/>
-        <v>26.216000000000001</v>
-      </c>
-      <c r="U47" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Thu</v>
-      </c>
-      <c r="V47" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="10">
-        <v>44091</v>
-      </c>
-      <c r="G48" s="10">
-        <v>44116</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12">
-        <v>1</v>
-      </c>
-      <c r="L48" s="12">
-        <v>36</v>
-      </c>
-      <c r="M48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="14">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="O48" s="13" cm="1">
-        <f t="array" ref="O48">INDEX(TechRate,MATCH(H48,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P48" s="15">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="Q48" s="15">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="R48" s="15">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="S48" s="15">
-        <f t="shared" si="12"/>
-        <v>176</v>
-      </c>
-      <c r="T48" s="15">
-        <f t="shared" si="13"/>
-        <v>176</v>
-      </c>
-      <c r="U48" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Thu</v>
-      </c>
-      <c r="V48" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="10">
-        <v>44091</v>
-      </c>
-      <c r="G49" s="10">
-        <v>44116</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L49" s="12">
-        <v>40</v>
-      </c>
-      <c r="M49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N49" s="14">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="O49" s="13" cm="1">
-        <f t="array" ref="O49">INDEX(TechRate,MATCH(H49,TechNum,0))</f>
-        <v>140</v>
-      </c>
-      <c r="P49" s="15">
-        <f t="shared" si="9"/>
-        <v>105</v>
-      </c>
-      <c r="Q49" s="15">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="R49" s="15">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="S49" s="15">
-        <f t="shared" si="12"/>
-        <v>145</v>
-      </c>
-      <c r="T49" s="15">
-        <f t="shared" si="13"/>
-        <v>145</v>
-      </c>
-      <c r="U49" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Thu</v>
-      </c>
-      <c r="V49" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="10">
-        <v>44091</v>
-      </c>
-      <c r="G50" s="10">
-        <v>44152</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L50" s="12">
-        <v>87.581299999999999</v>
-      </c>
-      <c r="M50" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="14">
-        <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="O50" s="13" cm="1">
-        <f t="array" ref="O50">INDEX(TechRate,MATCH(H50,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P50" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="Q50" s="15">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R50" s="15">
-        <f t="shared" si="11"/>
-        <v>87.581299999999999</v>
-      </c>
-      <c r="S50" s="15">
-        <f t="shared" si="12"/>
-        <v>107.5813</v>
-      </c>
-      <c r="T50" s="15">
-        <f t="shared" si="13"/>
-        <v>107.5813</v>
-      </c>
-      <c r="U50" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Thu</v>
-      </c>
-      <c r="V50" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Tue</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="10">
-        <v>44095</v>
-      </c>
-      <c r="G51" s="10">
-        <v>44102</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="12">
-        <v>30</v>
-      </c>
-      <c r="M51" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" s="14">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O51" s="13" cm="1">
-        <f t="array" ref="O51">INDEX(TechRate,MATCH(H51,TechNum,0))</f>
-        <v>80</v>
-      </c>
-      <c r="P51" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Q51" s="15">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="R51" s="15">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="S51" s="15">
-        <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="T51" s="15">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="U51" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>Mon</v>
-      </c>
-      <c r="V51" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Mon</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>31</v>
@@ -5122,7 +2397,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -5161,7 +2436,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -7759,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -7775,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -7783,7 +5058,7 @@
     </row>
     <row r="8" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -7791,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
